--- a/江苏电信-组播.xlsx
+++ b/江苏电信-组播.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoze\Project\IPTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E5CBE-2236-4AF9-BAA8-E04A677D7621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9677268-0B60-4F4D-9178-B3FA15D4B538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EC0F9C02-8F4E-427F-A0B7-B0311B833153}"/>
   </bookViews>
@@ -1765,9 +1765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>igmp://239.49.1.:6000</t>
-  </si>
-  <si>
     <t>中国气象频道</t>
   </si>
   <si>
@@ -1780,6 +1777,9 @@
   <si>
     <t>洪泽综合</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>igmp://239.49.1.9:6000</t>
   </si>
 </sst>
 </file>
@@ -2321,8 +2321,8 @@
   <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A153" sqref="A153"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2695,18 +2695,18 @@
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>CGTN英语,igmp://239.49.1.:6000</v>
+        <v>CGTN英语,igmp://239.49.1.9:6000</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>CGTN英语,http://192.168.1.1:8888/udp/239.49.1.:6000</v>
+        <v>CGTN英语,http://192.168.1.1:8888/udp/239.49.1.9:6000</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>252</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>_xlfn.CONCAT(A28,",",B28)</f>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="153" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>201</v>
@@ -5314,7 +5314,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
